--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_18_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_18_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60194.50089051383</v>
+        <v>11978705.67721223</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60194.50089051383</v>
+        <v>11978705.67721223</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5364.236088718761</v>
+        <v>727717.0658659003</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5364.236088718761</v>
+        <v>727717.0658659003</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342650383.461618</v>
+        <v>55061827.99782782</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11341.47854985315</v>
+        <v>1262228.01137845</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21639.22451436225</v>
+        <v>2362609.977989031</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31936.97047887134</v>
+        <v>3462991.944599614</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42327.56732339349</v>
+        <v>4569769.167617909</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52693.9314406429</v>
+        <v>5671724.077908929</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63060.29555789233</v>
+        <v>6773678.98819995</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>73426.65967514174</v>
+        <v>7875633.898490966</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83793.02379239116</v>
+        <v>8977588.808781981</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>94065.00126073865</v>
+        <v>10072161.20817074</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>104356.3297746668</v>
+        <v>11172682.79347819</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>114647.658288595</v>
+        <v>12273204.37878565</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>124832.2499242684</v>
+        <v>13368152.84942223</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>135041.0742872145</v>
+        <v>14467923.63278609</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>146071.4001068046</v>
+        <v>15450230.61140979</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>157114.7764425291</v>
+        <v>16431362.74789831</v>
       </c>
     </row>
   </sheetData>
@@ -27040,7 +27040,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27049,16 +27049,16 @@
         <v>391</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>400</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,7 +27144,7 @@
         <v>359</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>34</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
